--- a/biology/Zoologie/Dindon_Bourbon_rouge/Dindon_Bourbon_rouge.xlsx
+++ b/biology/Zoologie/Dindon_Bourbon_rouge/Dindon_Bourbon_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dindon Bourbon rouge (en anglais : Bourbon Red) est un dindon originaire des États-Unis. Il figure parmi les races reconnues par le British Poultry Standard.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bourbon rouge est originaire des États-Unis, plus précisément du comté de Bourbon dans l'État du Kentucky[1]. La race est reconnue par l'American Poultry Association en 1909[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bourbon rouge est originaire des États-Unis, plus précisément du comté de Bourbon dans l'État du Kentucky. La race est reconnue par l'American Poultry Association en 1909.
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Bourbon rouge a le plumage brun rougeâtre dont l'extrémité des plumes est terminée par un liseré noir étroit, avec les rémiges blanches. La queue est blanche barrée transversalement de rouge à son extrémité.
-Standard
-Dindon : 10 à 14 kg[1]
-Dinde : 6 à 8 kg[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bourbon rouge a le plumage brun rougeâtre dont l'extrémité des plumes est terminée par un liseré noir étroit, avec les rémiges blanches. La queue est blanche barrée transversalement de rouge à son extrémité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dindon_Bourbon_rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dindon_Bourbon_rouge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dindon : 10 à 14 kg
+Dinde : 6 à 8 kg</t>
         </is>
       </c>
     </row>
